--- a/片薄機研磨次數及進給量接點位置_08.17.xlsx
+++ b/片薄機研磨次數及進給量接點位置_08.17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下載\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCodes\c#\Propellants\PropInnerImageAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{211EA27C-C9B5-477F-BED1-FE784EE33C80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870C0383-60B2-4456-AEEA-C4AEAE49CCA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接點" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="246">
   <si>
     <t>M91</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3161,6 +3161,31 @@
   </si>
   <si>
     <t>D982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單研磨結束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回到原點</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3168,7 +3193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3225,6 +3250,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3240,7 +3272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3313,13 +3345,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3405,6 +3448,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3723,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4146,6 +4195,12 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
+      <c r="M12" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -4176,6 +4231,12 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
+      <c r="M13" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -6410,8 +6471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562C3936-31A8-4186-9C26-BD9633933496}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
